--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_4_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_4_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1395598787553347</v>
+        <v>0.2832654073311374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1395598787553347</v>
+        <v>0.2832654073311374</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.889379132224052</v>
+        <v>5.722205170129542</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.9552037102882416, 15.733961974736346]</t>
+          <t>[-3.456589553370569, 14.900999893629653]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1236861020876345</v>
+        <v>0.2157331757674585</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1236861020876345</v>
+        <v>0.2157331757674585</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.345947603339772</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.4592111300788515, 0.842789620782848]</t>
+          <t>[-4.434079721282892, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2269668676100425</v>
+        <v>0.3846949540199622</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2269668676100425</v>
+        <v>0.3846949540199622</v>
       </c>
       <c r="T2" t="n">
-        <v>14.05909179473795</v>
+        <v>14.24924262347474</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.301399822303306, 18.816783767172602]</t>
+          <t>[9.283174336651285, 19.2153109102982]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.682395335324884e-07</v>
+        <v>6.636294154205302e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.682395335324884e-07</v>
+        <v>6.636294154205302e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.767967967967998</v>
+        <v>4.896936936936967</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.071671671671692</v>
+        <v>-6.338558558558596</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.60760760760769</v>
+        <v>16.13243243243253</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5882512106461208</v>
+        <v>0.1026096943591608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5882512106461208</v>
+        <v>0.1026096943591608</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.892142504408818</v>
+        <v>7.159299308548331</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.362763701960656, 14.147048710778293]</t>
+          <t>[-1.8485044834467423, 16.167103100543404]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4486000390500622</v>
+        <v>0.116422187520751</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4486000390500622</v>
+        <v>0.116422187520751</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.056631763369539</v>
+        <v>-1.069210712933463</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.182500730004429, 2.0692372032653497]</t>
+          <t>[-3.559842726590236, 1.4214213007233094]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.4994715054897889</v>
+        <v>0.3918221164102222</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4994715054897889</v>
+        <v>0.3918221164102222</v>
       </c>
       <c r="T3" t="n">
-        <v>14.77430853953793</v>
+        <v>14.20630354748796</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.463705321600454, 20.084911757475403]</t>
+          <t>[9.587068836056217, 18.825538258919707]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.206885945626013e-06</v>
+        <v>1.606200743520247e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.206885945626013e-06</v>
+        <v>1.606200743520247e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.851051051051073</v>
+        <v>3.890090090090116</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.541641641641689</v>
+        <v>-5.17153153153156</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.24374374374383</v>
+        <v>12.95171171171179</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1814696744570862</v>
+        <v>0.5327158697911751</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1814696744570862</v>
+        <v>0.5327158697911751</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.168204358343893</v>
+        <v>4.555443041340761</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.3151312514944156, 12.651539968182203]</t>
+          <t>[-5.748545587126526, 14.85943166980805]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1710663265118564</v>
+        <v>0.3779631980197684</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1710663265118564</v>
+        <v>0.3779631980197684</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-1.710737140693541</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.5724216761541587, 2.6918952066795416]</t>
+          <t>[-4.842895582110392, 1.4214213007233099]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7783932127340771</v>
+        <v>0.2771507321866082</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7783932127340771</v>
+        <v>0.2771507321866082</v>
       </c>
       <c r="T4" t="n">
-        <v>13.21593576504804</v>
+        <v>14.48920585181961</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.241836564875687, 17.190034965220402]</t>
+          <t>[8.875008693337357, 20.103403010301854]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.862287562521715e-08</v>
+        <v>4.744582307925072e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.862287562521715e-08</v>
+        <v>4.744582307925072e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>1.604604604604614</v>
+        <v>6.224144144144184</v>
       </c>
       <c r="Y4" t="n">
-        <v>-9.81101101101107</v>
+        <v>-5.17153153153156</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.0202202202203</v>
+        <v>17.61981981981993</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4559524899376464</v>
+        <v>0.1137713039958725</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4559524899376464</v>
+        <v>0.1137713039958725</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.719783207448784</v>
+        <v>7.73093807957305</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.949612747546966, 14.389179162444535]</t>
+          <t>[-1.7520410913758155, 17.213917250521916]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3308071290662296</v>
+        <v>0.107564390602144</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3308071290662296</v>
+        <v>0.107564390602144</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.4654211338651546</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.4403427057329665, 2.7359215301532736]</t>
+          <t>[-3.434053230951005, 2.503210963220696]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8193546543982482</v>
+        <v>0.7536366724314649</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8193546543982482</v>
+        <v>0.7536366724314649</v>
       </c>
       <c r="T5" t="n">
-        <v>15.7923420523317</v>
+        <v>11.63977925840821</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.376272330038441, 21.208411774624956]</t>
+          <t>[6.40038665113773, 16.879171865678686]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.821550358968807e-07</v>
+        <v>5.169368538116004e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.821550358968807e-07</v>
+        <v>5.169368538116004e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>1.283683683683691</v>
+        <v>1.693333333333342</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.971471471471535</v>
+        <v>-9.10738738738744</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.53883883883892</v>
+        <v>12.49405405405412</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6530504564969413</v>
+        <v>0.153808383986676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6530504564969413</v>
+        <v>0.153808383986676</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.227581798150377</v>
+        <v>7.303872450115545</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.915679452740214, 12.370843049040968]</t>
+          <t>[-2.9092592428787682, 17.517004143109858]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.480765245242339</v>
+        <v>0.1566826693107515</v>
       </c>
       <c r="O6" t="n">
-        <v>0.480765245242339</v>
+        <v>0.1566826693107515</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.396263401595464</v>
+        <v>-0.8553685703467711</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.534711317794276, 1.7421845146033483]</t>
+          <t>[-3.993816486545584, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3749924278842043</v>
+        <v>0.585764376418179</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3749924278842043</v>
+        <v>0.585764376418179</v>
       </c>
       <c r="T6" t="n">
-        <v>13.29623360040711</v>
+        <v>14.02221298728846</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.430749858034087, 18.16171734278013]</t>
+          <t>[8.755483251886663, 19.288942722690262]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.689917560110388e-06</v>
+        <v>2.728752696468106e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.689917560110388e-06</v>
+        <v>2.728752696468106e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>5.088888888888921</v>
+        <v>3.112072072072092</v>
       </c>
       <c r="Y6" t="n">
-        <v>-6.349649649649688</v>
+        <v>-8.306486486486536</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.52742742742753</v>
+        <v>14.53063063063072</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6800059413704931</v>
+        <v>0.9347129592315544</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6800059413704931</v>
+        <v>0.9347129592315544</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2.604797612719988</v>
+        <v>1.140178933467377</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.185570695195581, 10.395165920635558]</t>
+          <t>[-7.490421920923646, 9.7707797878584]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.5041128542290285</v>
+        <v>0.7913922594846019</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5041128542290285</v>
+        <v>0.7913922594846019</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.01257894956392303</v>
+        <v>-2.742211004935235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.1384479161988126, 3.1132900170709665]</t>
+          <t>[-5.880658921134048, 0.3962369112635784]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9935690072717658</v>
+        <v>0.08523539525655077</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9935690072717658</v>
+        <v>0.08523539525655077</v>
       </c>
       <c r="T7" t="n">
-        <v>12.08960470267198</v>
+        <v>11.42257659788161</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.791956019556615, 16.387253385787343]</t>
+          <t>[6.9497000285273565, 15.895453167235857]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.759179675494778e-07</v>
+        <v>5.696366849328172e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>9.759179675494778e-07</v>
+        <v>5.696366849328172e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04584584584584661</v>
+        <v>9.976936936936994</v>
       </c>
       <c r="Y7" t="n">
-        <v>-11.34684684684692</v>
+        <v>-1.441621621621634</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.43853853853861</v>
+        <v>21.39549549549562</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3274878751427999</v>
+        <v>0.6934657535960795</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3274878751427999</v>
+        <v>0.6934657535960795</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.150839637346337</v>
+        <v>2.615522492638623</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.3990955709504913, 11.700774845643165]</t>
+          <t>[-5.82709607460967, 11.058141059886914]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2740381642212406</v>
+        <v>0.535798416182963</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2740381642212406</v>
+        <v>0.535798416182963</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.4780000834290776</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.603869050063967, 2.647868883205812]</t>
+          <t>[-2.591263610168158, 3.6604743231016212]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7595098095594146</v>
+        <v>0.7321017600572568</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7595098095594146</v>
+        <v>0.7321017600572568</v>
       </c>
       <c r="T8" t="n">
-        <v>11.01294953307042</v>
+        <v>12.50400477349857</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.045167417972369, 14.980731648168469]</t>
+          <t>[8.135558275312377, 16.872451271684767]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.261283452569373e-06</v>
+        <v>6.961672749383752e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.261283452569373e-06</v>
+        <v>6.961672749383752e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>1.742142142142153</v>
+        <v>20.91495495495508</v>
       </c>
       <c r="Y8" t="n">
-        <v>-9.65055055055061</v>
+        <v>9.542162162162217</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.13483483483492</v>
+        <v>32.28774774774794</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00984462226102345</v>
+        <v>0.4275628181429235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00984462226102345</v>
+        <v>0.4275628181429235</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>8.346505291716008</v>
+        <v>4.236532504160365</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[2.1623189363951205, 14.530691647036896]</t>
+          <t>[-4.5315134522385145, 13.004578460559244]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.009284691857959659</v>
+        <v>0.3356703205940519</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009284691857959659</v>
+        <v>0.3356703205940519</v>
       </c>
       <c r="P9" t="n">
-        <v>1.679289766783733</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 2.6730267823336575]</t>
+          <t>[-1.9748950815359265, 4.3020007508616995]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001407116773859185</v>
+        <v>0.4591213460507411</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001407116773859185</v>
+        <v>0.4591213460507411</v>
       </c>
       <c r="T9" t="n">
-        <v>11.44909667304226</v>
+        <v>13.87403700127582</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.812681782404481, 15.08551156368004]</t>
+          <t>[9.367426503800854, 18.380647498750786]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.708697623622697e-08</v>
+        <v>1.571907788378013e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.708697623622697e-08</v>
+        <v>1.571907788378013e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.77957957957968</v>
+        <v>18.62666666666678</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.15775775775784</v>
+        <v>7.208108108108148</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.40140140140153</v>
+        <v>30.0452252252254</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1507872105558707</v>
+        <v>0.4322073328459917</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1507872105558707</v>
+        <v>0.4322073328459917</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.189554337475985</v>
+        <v>4.664845924226054</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.5137690967238138, 16.892877771675785]</t>
+          <t>[-5.2654076610756935, 14.5950995095278]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1425923095160235</v>
+        <v>0.3491265495577101</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1425923095160235</v>
+        <v>0.3491265495577101</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5220264069028095</v>
+        <v>0.4842895582110396</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.584974135386194, 3.6290269491918132]</t>
+          <t>[-2.64157940842385, 3.610158524845929]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7366341410524901</v>
+        <v>0.7564482598546167</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7366341410524901</v>
+        <v>0.7564482598546167</v>
       </c>
       <c r="T10" t="n">
-        <v>16.77193456320194</v>
+        <v>15.29293255965785</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[11.583480997119947, 21.960388129283928]</t>
+          <t>[10.159837544127747, 20.426027575187952]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.434863026287928e-08</v>
+        <v>3.116196463093246e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>5.434863026287928e-08</v>
+        <v>3.116196463093246e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>20.99739739739752</v>
+        <v>21.09801801801814</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.67347347347353</v>
+        <v>9.72522522522528</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.32132132132151</v>
+        <v>32.470810810811</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007402682635932467</v>
+        <v>0.0971068138682798</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007402682635932467</v>
+        <v>0.0971068138682798</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10.50434674038979</v>
+        <v>5.822031870621778</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[2.191301639552357, 18.817391841227217]</t>
+          <t>[-1.5901259282720464, 13.234189669515603]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01442593137184245</v>
+        <v>0.120649164270914</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01442593137184245</v>
+        <v>0.120649164270914</v>
       </c>
       <c r="P11" t="n">
-        <v>1.088079137279347</v>
+        <v>0.8490790955648091</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.9434477076261176]</t>
+          <t>[-2.169868799776734, 3.868026990906352]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01382422558403373</v>
+        <v>0.5738911931698922</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01382422558403373</v>
+        <v>0.5738911931698922</v>
       </c>
       <c r="T11" t="n">
-        <v>13.08330551402256</v>
+        <v>9.881823100733499</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.584902506592712, 17.581708521452413]</t>
+          <t>[6.153269012512185, 13.610377188954812]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.073011521972148e-07</v>
+        <v>2.962651027615948e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>5.073011521972148e-07</v>
+        <v>2.962651027615948e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>19.51311311311332</v>
+        <v>20.09081081081098</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.30030030030047</v>
+        <v>8.92924924924932</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.72592592592617</v>
+        <v>31.25237237237263</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2472816924474991</v>
+        <v>0.21426356661101</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2472816924474991</v>
+        <v>0.21426356661101</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.559878787687392</v>
+        <v>7.329458610388508</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.1948661838941206, 14.314623759268905]</t>
+          <t>[-2.839746812652656, 17.498664033429673]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2074194681939678</v>
+        <v>0.1535311570753297</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2074194681939678</v>
+        <v>0.1535311570753297</v>
       </c>
       <c r="P12" t="n">
-        <v>1.930868758062195</v>
+        <v>1.352237078121734</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.1195265111891555, 4.9812640273135464]</t>
+          <t>[-1.7610529389492333, 4.465527095192701]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2088858008828973</v>
+        <v>0.3863212165010093</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2088858008828973</v>
+        <v>0.3863212165010093</v>
       </c>
       <c r="T12" t="n">
-        <v>12.46929228338101</v>
+        <v>14.47919006904582</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.837904900586121, 17.10067966617589]</t>
+          <t>[8.716554590252496, 20.24182554783914]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.226029761187576e-06</v>
+        <v>7.515331771124067e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>2.226029761187576e-06</v>
+        <v>7.515331771124067e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>16.34754754754772</v>
+        <v>18.2305505505507</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.890090090090141</v>
+        <v>6.720190190190241</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.8050050050053</v>
+        <v>29.74091091091116</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.200326757824649</v>
+        <v>0.2404685693888076</v>
       </c>
       <c r="I13" t="n">
-        <v>0.200326757824649</v>
+        <v>0.2404685693888076</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.288100262635233</v>
+        <v>5.450762130221571</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.0557140165165997, 15.631914541787065]</t>
+          <t>[-3.4940006490892515, 14.395524909532394]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1820451197053012</v>
+        <v>0.2260714316767722</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1820451197053012</v>
+        <v>0.2260714316767722</v>
       </c>
       <c r="P13" t="n">
-        <v>2.308237244979888</v>
+        <v>2.333395144107735</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.8302106712189241, 5.446685161178699]</t>
+          <t>[-0.792473822527155, 5.459264110742624]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1454915396357439</v>
+        <v>0.1397001746412496</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1454915396357439</v>
+        <v>0.1397001746412496</v>
       </c>
       <c r="T13" t="n">
-        <v>12.75719783043951</v>
+        <v>12.9794225124462</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.856122659044221, 17.658273001834804]</t>
+          <t>[8.45133558415441, 17.507509440737994]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.085037028866978e-06</v>
+        <v>6.76949176492414e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.085037028866978e-06</v>
+        <v>6.76949176492414e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>14.93013013013029</v>
+        <v>14.60304304304316</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.14194194194198</v>
+        <v>3.0461761761762</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.7183183183186</v>
+        <v>26.15990990991013</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6770508834852804</v>
+        <v>0.1472892957137578</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6770508834852804</v>
+        <v>0.1472892957137578</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2.442767329572066</v>
+        <v>5.869273306017318</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-5.243132197518561, 10.128666856662694]</t>
+          <t>[-1.8343028536966717, 13.572849465731307]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.5253332464041591</v>
+        <v>0.1319023289754155</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5253332464041591</v>
+        <v>0.1319023289754155</v>
       </c>
       <c r="P14" t="n">
-        <v>2.396289891927349</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, 5.534737808126161]</t>
+          <t>[-0.02515789912784605, 5.346053564667316]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1310945791236078</v>
+        <v>0.05209327267967279</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1310945791236078</v>
+        <v>0.05209327267967279</v>
       </c>
       <c r="T14" t="n">
-        <v>12.44630400163603</v>
+        <v>11.91993421606067</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.522059279602384, 16.370548723669675]</t>
+          <t>[7.6986610497442864, 16.14120738237706]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.273498353084108e-08</v>
+        <v>9.069234896408318e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>8.273498353084108e-08</v>
+        <v>9.069234896408318e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>14.59939939939956</v>
+        <v>13.39387387387398</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.811211211211246</v>
+        <v>3.464734734734762</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.38758758758787</v>
+        <v>23.32301301301321</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1910057694585748</v>
+        <v>0.3000956440700027</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1910057694585748</v>
+        <v>0.3000956440700027</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.22254934545802</v>
+        <v>5.49414246609329</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.3633399676883773, 14.808438658604418]</t>
+          <t>[-3.8119577745843483, 14.800242706770929]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.1513177141043469</v>
+        <v>0.2406419476408097</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1513177141043469</v>
+        <v>0.2406419476408097</v>
       </c>
       <c r="P15" t="n">
-        <v>1.805079262422964</v>
+        <v>2.094395102393196</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.2201581077005397, 4.830316632546468]</t>
+          <t>[-1.0440528138056173, 5.232843018592009]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.2357421067322703</v>
+        <v>0.1856596389391634</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2357421067322703</v>
+        <v>0.1856596389391634</v>
       </c>
       <c r="T15" t="n">
-        <v>12.48060367687207</v>
+        <v>11.73990352155789</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.735091940580983, 17.22611541316316]</t>
+          <t>[6.799379633349691, 16.680427409766093]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.400999095459767e-06</v>
+        <v>1.869172302604305e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>3.400999095459767e-06</v>
+        <v>1.869172302604305e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>16.8200200200202</v>
+        <v>15.48666666666679</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.457057057057117</v>
+        <v>3.88329329329332</v>
       </c>
       <c r="Z15" t="n">
-        <v>28.18298298298328</v>
+        <v>27.09004004004026</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2925435006311479</v>
+        <v>0.4481160537640392</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2925435006311479</v>
+        <v>0.4481160537640392</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.267396826575834</v>
+        <v>4.369832083919917</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.8564760217028846, 14.391269674854552]</t>
+          <t>[-5.044291796044686, 13.78395596388452]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2510470433851291</v>
+        <v>0.3548282456440888</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2510470433851291</v>
+        <v>0.3548282456440888</v>
       </c>
       <c r="P16" t="n">
-        <v>2.55981623625835</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 5.698264152457163]</t>
+          <t>[-0.3333421634439615, 5.93097471938974]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1074019953907757</v>
+        <v>0.07860655936918293</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1074019953907757</v>
+        <v>0.07860655936918293</v>
       </c>
       <c r="T16" t="n">
-        <v>13.71863622250533</v>
+        <v>14.46674061847906</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[8.985953308690057, 18.4513191363206]</t>
+          <t>[9.53905634148159, 19.394424895476533]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.423820812477942e-07</v>
+        <v>4.20273953638528e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>5.423820812477942e-07</v>
+        <v>4.20273953638528e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>13.98518518518533</v>
+        <v>12.88230230230241</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.196996996997017</v>
+        <v>1.302182182182193</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.77337337337365</v>
+        <v>24.46242242242262</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.20960659341683</v>
+        <v>0.02385327244969637</v>
       </c>
       <c r="I17" t="n">
-        <v>0.20960659341683</v>
+        <v>0.02385327244969637</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.852023673491212</v>
+        <v>7.872798976835582</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-2.10244095536258, 13.806488302345004]</t>
+          <t>[0.2781641808391697, 15.467433772831994]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1453742245783574</v>
+        <v>0.04250020399799936</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1453742245783574</v>
+        <v>0.04250020399799936</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.107000542289005</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.471843060306547, -0.742158024271462]</t>
+          <t>[1.2641844311742703, 3.8806059404702755]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.01117594396262889</v>
+        <v>0.0002637764659696451</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01117594396262889</v>
+        <v>0.0002637764659696451</v>
       </c>
       <c r="T17" t="n">
-        <v>16.20171457587306</v>
+        <v>11.80133157367246</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[11.533552669890856, 20.86987648185527]</t>
+          <t>[7.840357361316713, 15.762305786028215]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.053244647053475e-08</v>
+        <v>3.113617992323015e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.053244647053475e-08</v>
+        <v>3.113617992323015e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>11.67007007007019</v>
+        <v>13.71941941941953</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.787587587587616</v>
+        <v>8.882742742742815</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.55255255255277</v>
+        <v>18.55609609609625</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08578910582621424</v>
+        <v>0.3802045686348199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08578910582621424</v>
+        <v>0.3802045686348199</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>7.569793879529215</v>
+        <v>4.931155951775303</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-1.728254916020699, 16.867842675079128]</t>
+          <t>[-4.535497196353631, 14.397809099904237]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1080332085527445</v>
+        <v>0.2997151491956074</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1080332085527445</v>
+        <v>0.2997151491956074</v>
       </c>
       <c r="P18" t="n">
-        <v>2.35855304323558</v>
+        <v>2.823974177100736</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, 5.484422009870469]</t>
+          <t>[-0.3144737390980774, 5.962422093299549]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.1355831019938456</v>
+        <v>0.07661679536629906</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1355831019938456</v>
+        <v>0.07661679536629906</v>
       </c>
       <c r="T18" t="n">
-        <v>15.17207761834473</v>
+        <v>15.36026753474857</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[10.439839804707937, 19.90431543198153]</t>
+          <t>[10.30073905535783, 20.419796014139315]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>6.522438611433756e-08</v>
+        <v>2.109725452115185e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>6.522438611433756e-08</v>
+        <v>2.109725452115185e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>14.7411411411413</v>
+        <v>12.78928928928939</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.000200200200233</v>
+        <v>1.185915915915922</v>
       </c>
       <c r="Z18" t="n">
-        <v>26.48208208208236</v>
+        <v>24.39266266266286</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1659160778439095</v>
+        <v>0.0687113854684378</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1659160778439095</v>
+        <v>0.0687113854684378</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>7.098432263564463</v>
+        <v>7.598529794469219</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-2.5673469228650703, 16.764211449993997]</t>
+          <t>[-0.4590678030944133, 15.65612739203285]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1460714049305081</v>
+        <v>0.06393932911557876</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1460714049305081</v>
+        <v>0.06393932911557876</v>
       </c>
       <c r="P19" t="n">
-        <v>1.968605606753965</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-0.4968685077749617, 4.434079721282891]</t>
+          <t>[1.5535002711445025, 4.496974469102506]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.1147859007466845</v>
+        <v>0.0001504214734007192</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1147859007466845</v>
+        <v>0.0001504214734007192</v>
       </c>
       <c r="T19" t="n">
-        <v>16.48236464242791</v>
+        <v>14.47197428642052</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[11.289201213524656, 21.675528071331165]</t>
+          <t>[9.86369721351088, 19.08025135933015]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>8.148017283104991e-08</v>
+        <v>1.026147082860973e-07</v>
       </c>
       <c r="W19" t="n">
-        <v>8.148017283104991e-08</v>
+        <v>1.026147082860973e-07</v>
       </c>
       <c r="X19" t="n">
-        <v>16.20580580580598</v>
+        <v>12.04518518518528</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.945345345345419</v>
+        <v>6.603923923923979</v>
       </c>
       <c r="Z19" t="n">
-        <v>25.46626626626653</v>
+        <v>17.48644644644659</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.45442220175616</v>
+        <v>0.19591673528494</v>
       </c>
       <c r="I20" t="n">
-        <v>0.45442220175616</v>
+        <v>0.19591673528494</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>3.771540057451561</v>
+        <v>6.044785708892537</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-4.423667112373642, 11.966747227276763]</t>
+          <t>[-2.6718747566581094, 14.761446174443183]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.3589148790945667</v>
+        <v>0.169345595392699</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3589148790945667</v>
+        <v>0.169345595392699</v>
       </c>
       <c r="P20" t="n">
-        <v>2.735921530153273</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-0.4025263860455386, 5.874369446352085]</t>
+          <t>[-5.962422093299547, 0.27673689040630833]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.08593068595703945</v>
+        <v>0.07305549079872464</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08593068595703945</v>
+        <v>0.07305549079872464</v>
       </c>
       <c r="T20" t="n">
-        <v>12.91154569154378</v>
+        <v>14.16204657615899</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[8.650305177610964, 17.1727862054766]</t>
+          <t>[9.425139491260056, 18.898953661057917]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.197450406082879e-07</v>
+        <v>2.899998818861604e-07</v>
       </c>
       <c r="W20" t="n">
-        <v>2.197450406082879e-07</v>
+        <v>2.899998818861604e-07</v>
       </c>
       <c r="X20" t="n">
-        <v>13.32372372372387</v>
+        <v>10.51047047047056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.535535535535555</v>
+        <v>-1.023143143143152</v>
       </c>
       <c r="Z20" t="n">
-        <v>25.11191191191218</v>
+        <v>22.04408408408426</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_4_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_4_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2832654073311374</v>
+        <v>0.5050328282616736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2832654073311374</v>
+        <v>0.5050328282616736</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.722205170129542</v>
+        <v>4.070294543151112</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.456589553370569, 14.900999893629653]</t>
+          <t>[-5.217220342835546, 13.35780942913777]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2157331757674585</v>
+        <v>0.3820950915556933</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2157331757674585</v>
+        <v>0.3820950915556933</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.345947603339772</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.434079721282892, 1.7421845146033483]</t>
+          <t>[-3.930921738725967, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.3846949540199622</v>
+        <v>0.6064956907602514</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3846949540199622</v>
+        <v>0.6064956907602514</v>
       </c>
       <c r="T2" t="n">
-        <v>14.24924262347474</v>
+        <v>15.12312712226897</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.283174336651285, 19.2153109102982]</t>
+          <t>[10.196592165019485, 20.049662079518455]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.636294154205302e-07</v>
+        <v>1.671019058679946e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>6.636294154205302e-07</v>
+        <v>1.671019058679946e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.896936936936967</v>
+        <v>2.96488488488491</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.338558558558596</v>
+        <v>-8.54720720720727</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.13243243243253</v>
+        <v>14.47697697697709</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1026096943591608</v>
+        <v>0.1565980977442667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1026096943591608</v>
+        <v>0.1565980977442667</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.159299308548331</v>
+        <v>5.776769075733635</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.8485044834467423, 16.167103100543404]</t>
+          <t>[-2.0033913935954164, 13.556929545062687]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.116422187520751</v>
+        <v>0.1417719780374385</v>
       </c>
       <c r="O3" t="n">
-        <v>0.116422187520751</v>
+        <v>0.1417719780374385</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.069210712933463</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.559842726590236, 1.4214213007233094]</t>
+          <t>[-3.842869091778507, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3918221164102222</v>
+        <v>0.6463161214736057</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3918221164102222</v>
+        <v>0.6463161214736057</v>
       </c>
       <c r="T3" t="n">
-        <v>14.20630354748796</v>
+        <v>14.39974448260768</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.587068836056217, 18.825538258919707]</t>
+          <t>[10.202827583124233, 18.596661382091135]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.606200743520247e-07</v>
+        <v>1.38364064650176e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.606200743520247e-07</v>
+        <v>1.38364064650176e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>3.890090090090116</v>
+        <v>2.640600600600621</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.17153153153156</v>
+        <v>-8.871491491491563</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.95171171171179</v>
+        <v>14.1526926926928</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5327158697911751</v>
+        <v>0.03811937105652574</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5327158697911751</v>
+        <v>0.03811937105652574</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.555443041340761</v>
+        <v>8.613746081205777</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.748545587126526, 14.85943166980805]</t>
+          <t>[-0.5067016749504702, 17.734193837362024]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3779631980197684</v>
+        <v>0.06355610581906079</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3779631980197684</v>
+        <v>0.06355610581906079</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.710737140693541</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.842895582110392, 1.4214213007233099]</t>
+          <t>[-3.2705268866200043, 1.58494764505431]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2771507321866082</v>
+        <v>0.4880276750109802</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2771507321866082</v>
+        <v>0.4880276750109802</v>
       </c>
       <c r="T4" t="n">
-        <v>14.48920585181961</v>
+        <v>14.6593901918782</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.875008693337357, 20.103403010301854]</t>
+          <t>[10.032283471709128, 19.286496912047276]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.744582307925072e-06</v>
+        <v>8.475040269573242e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>4.744582307925072e-06</v>
+        <v>8.475040269573242e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>6.224144144144184</v>
+        <v>3.103863863863886</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.17153153153156</v>
+        <v>-5.837117117117163</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.61981981981993</v>
+        <v>12.04484484484493</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1137713039958725</v>
+        <v>0.2095324403188321</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1137713039958725</v>
+        <v>0.2095324403188321</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>7.73093807957305</v>
+        <v>5.781185205532399</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.7520410913758155, 17.213917250521916]</t>
+          <t>[-3.0751571775738693, 14.637527588638667]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.107564390602144</v>
+        <v>0.1952541683690616</v>
       </c>
       <c r="O5" t="n">
-        <v>0.107564390602144</v>
+        <v>0.1952541683690616</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4654211338651546</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.434053230951005, 2.503210963220696]</t>
+          <t>[-2.459184639746966, 3.77997434395889]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7536366724314649</v>
+        <v>0.6718690695646257</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7536366724314649</v>
+        <v>0.6718690695646257</v>
       </c>
       <c r="T5" t="n">
-        <v>11.63977925840821</v>
+        <v>13.34246573258622</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.40038665113773, 16.879171865678686]</t>
+          <t>[8.756006237618713, 17.928925227553727]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.169368538116004e-05</v>
+        <v>5.049852540572886e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>5.169368538116004e-05</v>
+        <v>5.049852540572886e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>1.693333333333342</v>
+        <v>20.70786786786803</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.10738738738744</v>
+        <v>9.21893893893901</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.49405405405412</v>
+        <v>32.19679679679705</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.153808383986676</v>
+        <v>0.221844830345556</v>
       </c>
       <c r="I6" t="n">
-        <v>0.153808383986676</v>
+        <v>0.221844830345556</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.303872450115545</v>
+        <v>5.844758961708358</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.9092592428787682, 17.517004143109858]</t>
+          <t>[-3.4587657838518364, 15.148283707268552]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1566826693107515</v>
+        <v>0.2122689331114302</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1566826693107515</v>
+        <v>0.2122689331114302</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.8553685703467711</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.993816486545584, 2.283079345852042]</t>
+          <t>[-3.7107901213573133, 2.4277372658371577]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.585764376418179</v>
+        <v>0.675773134869075</v>
       </c>
       <c r="S6" t="n">
-        <v>0.585764376418179</v>
+        <v>0.675773134869075</v>
       </c>
       <c r="T6" t="n">
-        <v>14.02221298728846</v>
+        <v>12.55560162713455</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.755483251886663, 19.288942722690262]</t>
+          <t>[7.806121358186047, 17.305081896083053]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.728752696468106e-06</v>
+        <v>3.101309912656447e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.728752696468106e-06</v>
+        <v>3.101309912656447e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>3.112072072072092</v>
+        <v>2.362642642642662</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.306486486486536</v>
+        <v>-8.940980980981051</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.53063063063072</v>
+        <v>13.66626626626637</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9347129592315544</v>
+        <v>0.508505409019253</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9347129592315544</v>
+        <v>0.508505409019253</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.140178933467377</v>
+        <v>3.948803345793921</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-7.490421920923646, 9.7707797878584]</t>
+          <t>[-4.777993040990976, 12.675599732578819]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7913922594846019</v>
+        <v>0.366959443307608</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7913922594846019</v>
+        <v>0.366959443307608</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.742211004935235</v>
+        <v>0.08176317216550011</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.880658921134048, 0.3962369112635784]</t>
+          <t>[-3.0252373701235045, 3.1887637144545047]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08523539525655077</v>
+        <v>0.9579643412817846</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08523539525655077</v>
+        <v>0.9579643412817846</v>
       </c>
       <c r="T7" t="n">
-        <v>11.42257659788161</v>
+        <v>12.52652378063245</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.9497000285273565, 15.895453167235857]</t>
+          <t>[7.649183722403961, 17.403863838860946]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.696366849328172e-06</v>
+        <v>5.162890592158575e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>5.696366849328172e-06</v>
+        <v>5.162890592158575e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>9.976936936936994</v>
+        <v>22.83887887887905</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.441621621621634</v>
+        <v>11.39627627627636</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.39549549549562</v>
+        <v>34.28148148148175</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6934657535960795</v>
+        <v>0.6119848359068527</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6934657535960795</v>
+        <v>0.6119848359068527</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.615522492638623</v>
+        <v>3.547563625745692</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.82709607460967, 11.058141059886914]</t>
+          <t>[-6.202269769941239, 13.297397021432623]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.535798416182963</v>
+        <v>0.4674507131783525</v>
       </c>
       <c r="O8" t="n">
-        <v>0.535798416182963</v>
+        <v>0.4674507131783525</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5346053564667317</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.591263610168158, 3.6604743231016212]</t>
+          <t>[-2.7044741562434655, 3.5472637770263127]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7321017600572568</v>
+        <v>0.7872336871700485</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7321017600572568</v>
+        <v>0.7872336871700485</v>
       </c>
       <c r="T8" t="n">
-        <v>12.50400477349857</v>
+        <v>14.4287135558827</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.135558275312377, 16.872451271684767]</t>
+          <t>[9.309255368320173, 19.54817174344523]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.961672749383752e-07</v>
+        <v>9.409162811113703e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>6.961672749383752e-07</v>
+        <v>9.409162811113703e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>20.91495495495508</v>
+        <v>21.58806806806824</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.542162162162217</v>
+        <v>10.07597597597606</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.28774774774794</v>
+        <v>33.10016016016041</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4275628181429235</v>
+        <v>0.1160082472921905</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4275628181429235</v>
+        <v>0.1160082472921905</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.236532504160365</v>
+        <v>7.112264029286628</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.5315134522385145, 13.004578460559244]</t>
+          <t>[-1.565973609066038, 15.790501667639294]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3356703205940519</v>
+        <v>0.1057709605002737</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3356703205940519</v>
+        <v>0.1057709605002737</v>
       </c>
       <c r="P9" t="n">
-        <v>1.163552834662887</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.9748950815359265, 4.3020007508616995]</t>
+          <t>[-2.427737265837157, 3.748526970049081]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4591213460507411</v>
+        <v>0.6687320092319191</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4591213460507411</v>
+        <v>0.6687320092319191</v>
       </c>
       <c r="T9" t="n">
-        <v>13.87403700127582</v>
+        <v>13.82749772564863</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.367426503800854, 18.380647498750786]</t>
+          <t>[9.053494031502087, 18.601501419795166]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.571907788378013e-07</v>
+        <v>5.509683738136317e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.571907788378013e-07</v>
+        <v>5.509683738136317e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.62666666666678</v>
+        <v>20.70786786786803</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.208108108108148</v>
+        <v>9.33475475475483</v>
       </c>
       <c r="Z9" t="n">
-        <v>30.0452252252254</v>
+        <v>32.08098098098122</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4322073328459917</v>
+        <v>0.5020171641919132</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4322073328459917</v>
+        <v>0.5020171641919132</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.664845924226054</v>
+        <v>3.745816518139423</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-5.2654076610756935, 14.5950995095278]</t>
+          <t>[-4.5207249906854, 12.012358026964245]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3491265495577101</v>
+        <v>0.36629026535826</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3491265495577101</v>
+        <v>0.36629026535826</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4842895582110396</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.64157940842385, 3.610158524845929]</t>
+          <t>[-2.251631971942235, 4.025263860455391]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7564482598546167</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7564482598546167</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="T10" t="n">
-        <v>15.29293255965785</v>
+        <v>13.77500296040997</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.159837544127747, 20.426027575187952]</t>
+          <t>[9.287618119455681, 18.262387801364248]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.116196463093246e-07</v>
+        <v>1.671153400106817e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.116196463093246e-07</v>
+        <v>1.671153400106817e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>21.09801801801814</v>
+        <v>19.87399399399415</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.72522522522528</v>
+        <v>8.315575575575638</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.470810810811</v>
+        <v>31.43241241241266</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0971068138682798</v>
+        <v>0.03037274341054552</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0971068138682798</v>
+        <v>0.03037274341054552</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.822031870621778</v>
+        <v>9.140845245291976</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.5901259282720464, 13.234189669515603]</t>
+          <t>[0.8499554669782867, 17.431735023605665]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.120649164270914</v>
+        <v>0.03145747017903044</v>
       </c>
       <c r="O11" t="n">
-        <v>0.120649164270914</v>
+        <v>0.03145747017903044</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8490790955648091</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.169868799776734, 3.868026990906352]</t>
+          <t>[-0.01886842434588587, 2.5723951858222733]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5738911931698922</v>
+        <v>0.05328656714511704</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5738911931698922</v>
+        <v>0.05328656714511704</v>
       </c>
       <c r="T11" t="n">
-        <v>9.881823100733499</v>
+        <v>15.57340302905383</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.153269012512185, 13.610377188954812]</t>
+          <t>[10.896549670820766, 20.250256387286896]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.962651027615948e-06</v>
+        <v>2.777305496692861e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>2.962651027615948e-06</v>
+        <v>2.777305496692861e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>20.09081081081098</v>
+        <v>18.54942942942959</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.92924924924932</v>
+        <v>13.74894894894907</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.25237237237263</v>
+        <v>23.34990990991012</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21426356661101</v>
+        <v>0.2265823190423299</v>
       </c>
       <c r="I12" t="n">
-        <v>0.21426356661101</v>
+        <v>0.2265823190423299</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.329458610388508</v>
+        <v>5.857169253078829</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.839746812652656, 17.498664033429673]</t>
+          <t>[-2.6497435047802975, 14.364082010937956]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1535311570753297</v>
+        <v>0.1723503248710063</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1535311570753297</v>
+        <v>0.1723503248710063</v>
       </c>
       <c r="P12" t="n">
-        <v>1.352237078121734</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.7610529389492333, 4.465527095192701]</t>
+          <t>[-1.6855792415656952, 4.440369196064855]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.3863212165010093</v>
+        <v>0.3699049567325785</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3863212165010093</v>
+        <v>0.3699049567325785</v>
       </c>
       <c r="T12" t="n">
-        <v>14.47919006904582</v>
+        <v>12.38870839693619</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.716554590252496, 20.24182554783914]</t>
+          <t>[7.693374179865473, 17.084042614006904]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.515331771124067e-06</v>
+        <v>3.209661344927284e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>7.515331771124067e-06</v>
+        <v>3.209661344927284e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>18.2305505505507</v>
+        <v>18.17657657657673</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.720190190190241</v>
+        <v>6.827867867867919</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.74091091091116</v>
+        <v>29.52528528528554</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2404685693888076</v>
+        <v>0.2040934000063838</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2404685693888076</v>
+        <v>0.2040934000063838</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.450762130221571</v>
+        <v>6.223317905948083</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.4940006490892515, 14.395524909532394]</t>
+          <t>[-2.7182555489708866, 15.164891360867053]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2260714316767722</v>
+        <v>0.1678316033780629</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2260714316767722</v>
+        <v>0.1678316033780629</v>
       </c>
       <c r="P13" t="n">
-        <v>2.333395144107735</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.792473822527155, 5.459264110742624]</t>
+          <t>[-1.2201581077005406, 5.031579825569238]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1397001746412496</v>
+        <v>0.2258634295343762</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1397001746412496</v>
+        <v>0.2258634295343762</v>
       </c>
       <c r="T13" t="n">
-        <v>12.9794225124462</v>
+        <v>15.00444100294414</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.45133558415441, 17.507509440737994]</t>
+          <t>[10.177072271980968, 19.831809733907306]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.76949176492414e-07</v>
+        <v>1.281611883285905e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>6.76949176492414e-07</v>
+        <v>1.281611883285905e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>14.60304304304316</v>
+        <v>16.21909909909924</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.0461761761762</v>
+        <v>4.637357357357399</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.15990990991013</v>
+        <v>27.80084084084108</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1472892957137578</v>
+        <v>0.3255975263998161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1472892957137578</v>
+        <v>0.3255975263998161</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.869273306017318</v>
+        <v>4.418440559865331</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8343028536966717, 13.572849465731307]</t>
+          <t>[-3.1234682165093837, 11.960349336240046]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1319023289754155</v>
+        <v>0.2442139954128428</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1319023289754155</v>
+        <v>0.2442139954128428</v>
       </c>
       <c r="P14" t="n">
-        <v>2.660447832769735</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.02515789912784605, 5.346053564667316]</t>
+          <t>[-1.3836844520315408, 4.8932113803660835]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.05209327267967279</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05209327267967279</v>
+        <v>0.2660838381905248</v>
       </c>
       <c r="T14" t="n">
-        <v>11.91993421606067</v>
+        <v>13.3404846970638</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.6986610497442864, 16.14120738237706]</t>
+          <t>[9.24671156712043, 17.434257827007166]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.069234896408318e-07</v>
+        <v>4.536935671595188e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>9.069234896408318e-07</v>
+        <v>4.536935671595188e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>13.39387387387398</v>
+        <v>16.77837837837852</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.464734734734762</v>
+        <v>5.150030030030075</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.32301301301321</v>
+        <v>28.40672672672697</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3000956440700027</v>
+        <v>0.1076035681571808</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3000956440700027</v>
+        <v>0.1076035681571808</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.49414246609329</v>
+        <v>7.210784292704695</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.8119577745843483, 14.800242706770929]</t>
+          <t>[-1.810903301393445, 16.232471886802834]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2406419476408097</v>
+        <v>0.1144315027685767</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2406419476408097</v>
+        <v>0.1144315027685767</v>
       </c>
       <c r="P15" t="n">
-        <v>2.094395102393196</v>
+        <v>2.006342455445733</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, 5.232843018592009]</t>
+          <t>[-0.5283158816847697, 4.541000792576235]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1856596389391634</v>
+        <v>0.1178714789586408</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1856596389391634</v>
+        <v>0.1178714789586408</v>
       </c>
       <c r="T15" t="n">
-        <v>11.73990352155789</v>
+        <v>13.07584365870501</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.799379633349691, 16.680427409766093]</t>
+          <t>[8.377983074239253, 17.773704243170776]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.869172302604305e-05</v>
+        <v>1.196023593053042e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.869172302604305e-05</v>
+        <v>1.196023593053042e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.48666666666679</v>
+        <v>15.84624624624639</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.88329329329332</v>
+        <v>6.455015015015078</v>
       </c>
       <c r="Z15" t="n">
-        <v>27.09004004004026</v>
+        <v>25.23747747747769</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4481160537640392</v>
+        <v>0.3005717604818351</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4481160537640392</v>
+        <v>0.3005717604818351</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.369832083919917</v>
+        <v>4.597873237174582</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-5.044291796044686, 13.78395596388452]</t>
+          <t>[-3.375894754124907, 12.571641228474071]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.3548282456440888</v>
+        <v>0.2516100015964966</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3548282456440888</v>
+        <v>0.2516100015964966</v>
       </c>
       <c r="P16" t="n">
-        <v>2.798816277972889</v>
+        <v>2.52207938756658</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.3333421634439615, 5.93097471938974]</t>
+          <t>[-0.5723422051585016, 5.616500980291662]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.07860655936918293</v>
+        <v>0.1076494881745742</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07860655936918293</v>
+        <v>0.1076494881745742</v>
       </c>
       <c r="T16" t="n">
-        <v>14.46674061847906</v>
+        <v>9.781616461179709</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.53905634148159, 19.394424895476533]</t>
+          <t>[5.589789991792216, 13.973442930567202]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.20273953638528e-07</v>
+        <v>2.4807552914341e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>4.20273953638528e-07</v>
+        <v>2.4807552914341e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>12.88230230230241</v>
+        <v>13.9353753753755</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.302182182182193</v>
+        <v>2.47015015015017</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.46242242242262</v>
+        <v>25.40060060060082</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02385327244969637</v>
+        <v>0.2919995643675106</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02385327244969637</v>
+        <v>0.2919995643675106</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>7.872798976835582</v>
+        <v>4.115367588998039</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.2781641808391697, 15.467433772831994]</t>
+          <t>[-2.9595623691038195, 11.190297547099897]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.04250020399799936</v>
+        <v>0.2475356777912494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04250020399799936</v>
+        <v>0.2475356777912494</v>
       </c>
       <c r="P17" t="n">
-        <v>2.572395185822273</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.2641844311742703, 3.8806059404702755]</t>
+          <t>[-0.6415264277600778, 5.585053606381854]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.0002637764659696451</v>
+        <v>0.1168023490359014</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0002637764659696451</v>
+        <v>0.1168023490359014</v>
       </c>
       <c r="T17" t="n">
-        <v>11.80133157367246</v>
+        <v>9.702823427472925</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.840357361316713, 15.762305786028215]</t>
+          <t>[6.004060668599362, 13.401586186346488]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>3.113617992323015e-07</v>
+        <v>3.559543816367139e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>3.113617992323015e-07</v>
+        <v>3.559543816367139e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>13.71941941941953</v>
+        <v>14.12180180180192</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.882742742742815</v>
+        <v>2.586666666666689</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.55609609609625</v>
+        <v>25.65693693693716</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3802045686348199</v>
+        <v>0.2745998516285765</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3802045686348199</v>
+        <v>0.2745998516285765</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>4.931155951775303</v>
+        <v>4.773563145211419</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-4.535497196353631, 14.397809099904237]</t>
+          <t>[-3.0443011939790594, 12.591427484401898]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.2997151491956074</v>
+        <v>0.2251611344515132</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2997151491956074</v>
+        <v>0.2251611344515132</v>
       </c>
       <c r="P18" t="n">
-        <v>2.823974177100736</v>
+        <v>-2.792526803190928</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.3144737390980774, 5.962422093299549]</t>
+          <t>[-5.861790496788163, 0.27673689040630745]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.07661679536629906</v>
+        <v>0.07349832723127414</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07661679536629906</v>
+        <v>0.07349832723127414</v>
       </c>
       <c r="T18" t="n">
-        <v>15.36026753474857</v>
+        <v>11.69536683094031</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[10.30073905535783, 20.419796014139315]</t>
+          <t>[7.482087649992552, 15.908646011888072]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.109725452115185e-07</v>
+        <v>1.259202757841749e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>2.109725452115185e-07</v>
+        <v>1.259202757841749e-06</v>
       </c>
       <c r="X18" t="n">
-        <v>12.78928928928939</v>
+        <v>10.34666666666676</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.185915915915922</v>
+        <v>-1.02534534534535</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.39266266266286</v>
+        <v>21.71867867867887</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0687113854684378</v>
+        <v>0.06513274917078271</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0687113854684378</v>
+        <v>0.06513274917078271</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>7.598529794469219</v>
+        <v>7.183355835621718</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-0.4590678030944133, 15.65612739203285]</t>
+          <t>[-0.49485937745238573, 14.861571048695822]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.06393932911557876</v>
+        <v>0.06599469409006886</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06393932911557876</v>
+        <v>0.06599469409006886</v>
       </c>
       <c r="P19" t="n">
-        <v>3.025237370123504</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.5535002711445025, 4.496974469102506]</t>
+          <t>[-4.4655270951927, -1.3711055024676164]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.0001504214734007192</v>
+        <v>0.0004333420245623554</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0001504214734007192</v>
+        <v>0.0004333420245623554</v>
       </c>
       <c r="T19" t="n">
-        <v>14.47197428642052</v>
+        <v>12.64617249852716</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[9.86369721351088, 19.08025135933015]</t>
+          <t>[8.351616555772623, 16.940728441281706]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.026147082860973e-07</v>
+        <v>3.953478573404112e-07</v>
       </c>
       <c r="W19" t="n">
-        <v>1.026147082860973e-07</v>
+        <v>3.953478573404112e-07</v>
       </c>
       <c r="X19" t="n">
-        <v>12.04518518518528</v>
+        <v>10.81273273273283</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.603923923923979</v>
+        <v>5.080120120120162</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.48644644644659</v>
+        <v>16.54534534534549</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.19591673528494</v>
+        <v>0.2527498470905598</v>
       </c>
       <c r="I20" t="n">
-        <v>0.19591673528494</v>
+        <v>0.2527498470905598</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>6.044785708892537</v>
+        <v>5.5534185539183</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-2.6718747566581094, 14.761446174443183]</t>
+          <t>[-3.583547345276328, 14.690384453112928]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.169345595392699</v>
+        <v>0.227260378345882</v>
       </c>
       <c r="O20" t="n">
-        <v>0.169345595392699</v>
+        <v>0.227260378345882</v>
       </c>
       <c r="P20" t="n">
-        <v>-2.842842601446619</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-5.962422093299547, 0.27673689040630833]</t>
+          <t>[-0.8239211964369639, 5.440395686396739]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.07305549079872464</v>
+        <v>0.1447036917524942</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07305549079872464</v>
+        <v>0.1447036917524942</v>
       </c>
       <c r="T20" t="n">
-        <v>14.16204657615899</v>
+        <v>10.5731682565512</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[9.425139491260056, 18.898953661057917]</t>
+          <t>[5.878572458393917, 15.267764054708481]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.899998818861604e-07</v>
+        <v>4.233241704487689e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>2.899998818861604e-07</v>
+        <v>4.233241704487689e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>10.51047047047056</v>
+        <v>14.72768768768782</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.023143143143152</v>
+        <v>3.122642642642667</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.04408408408426</v>
+        <v>26.33273273273296</v>
       </c>
     </row>
   </sheetData>
